--- a/QDM065_2nd_Structure/QDM065-Summary.xlsx
+++ b/QDM065_2nd_Structure/QDM065-Summary.xlsx
@@ -522,12 +522,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Voltage (mV)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>NTC</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Voltage (mV)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -547,8 +547,10 @@
           <t>2024/04/29-18:53:38</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>89320420000001827680</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,13 +589,13 @@
       <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>3795</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>1494142.413139</t>
         </is>
-      </c>
-      <c r="P2" t="n">
-        <v>3795</v>
       </c>
       <c r="Q2" t="n">
         <v>1.23468</v>
@@ -610,8 +612,10 @@
           <t>2024/04/29-16:05:36</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>89320420000001827771</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -650,13 +654,13 @@
       <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>3811</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>1510702.967644</t>
         </is>
-      </c>
-      <c r="P3" t="n">
-        <v>3811</v>
       </c>
       <c r="Q3" t="n">
         <v>1.241141</v>
@@ -673,8 +677,10 @@
           <t>2024/04/29-16:00:50</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>89320420000001827276</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -713,13 +719,13 @@
       <c r="N4" t="b">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>3848</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>1535485.982895</t>
         </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3848</v>
       </c>
       <c r="Q4" t="n">
         <v>1.236062</v>
@@ -736,8 +742,10 @@
           <t>2024/04/29-15:18:29</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89320420000001827862</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -776,13 +784,13 @@
       <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>3790</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>1481426.358223</t>
         </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3790</v>
       </c>
       <c r="Q5" t="n">
         <v>1.231063</v>
@@ -799,8 +807,10 @@
           <t>2024/04/29-16:39:12</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>89320420000001827870</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -839,13 +849,13 @@
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>3765</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>1508414.745331</t>
         </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3765</v>
       </c>
       <c r="Q6" t="n">
         <v>1.240085</v>
@@ -862,8 +872,10 @@
           <t>2024/04/29-16:45:07</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>89320420000001827441</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -902,13 +914,13 @@
       <c r="N7" t="b">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>3845</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>1470257.639885</t>
         </is>
-      </c>
-      <c r="P7" t="n">
-        <v>3845</v>
       </c>
       <c r="Q7" t="n">
         <v>1.242807</v>
@@ -925,8 +937,10 @@
           <t>2024/04/29-16:02:43</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>89320420000001827326</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -965,13 +979,13 @@
       <c r="N8" t="b">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>3740</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>1498557.925224</t>
         </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3740</v>
       </c>
       <c r="Q8" t="n">
         <v>1.231876</v>
@@ -988,8 +1002,10 @@
           <t>2024/04/29-16:41:17</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>89320420000001827458</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,13 +1044,13 @@
       <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>3786</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>1545805.931091</t>
         </is>
-      </c>
-      <c r="P9" t="n">
-        <v>3786</v>
       </c>
       <c r="Q9" t="n">
         <v>1.235086</v>
@@ -1051,8 +1067,10 @@
           <t>2024/04/29-18:40:45</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>89320420000001827250</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1091,13 +1109,13 @@
       <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="n">
+        <v>3812</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>1546718.478203</t>
         </is>
-      </c>
-      <c r="P10" t="n">
-        <v>3812</v>
       </c>
       <c r="Q10" t="n">
         <v>1.244067</v>
@@ -1114,8 +1132,10 @@
           <t>2024/04/29-19:18:04</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>89320420000001827466</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1154,13 +1174,13 @@
       <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="n">
+        <v>2945</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>1506814.360619</t>
         </is>
-      </c>
-      <c r="P11" t="n">
-        <v>2945</v>
       </c>
       <c r="Q11" t="n">
         <v>1.078533</v>
@@ -1177,8 +1197,10 @@
           <t>2024/04/29-18:31:17</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>89320420000001827763</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1217,13 +1239,13 @@
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="n">
+        <v>3779</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>1493994.59362</t>
         </is>
-      </c>
-      <c r="P12" t="n">
-        <v>3779</v>
       </c>
       <c r="Q12" t="n">
         <v>1.245327</v>
@@ -1240,8 +1262,10 @@
           <t>2024/04/29-16:33:19</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>89320420000001827557</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1280,13 +1304,13 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="n">
+        <v>3796</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>1493685.245514</t>
         </is>
-      </c>
-      <c r="P13" t="n">
-        <v>3796</v>
       </c>
       <c r="Q13" t="n">
         <v>1.235411</v>
@@ -1303,8 +1327,10 @@
           <t>2024/04/29-15:09:00</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>89320420000001827672</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,13 +1369,13 @@
       <c r="N14" t="b">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="n">
+        <v>3795</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>1508459.448814</t>
         </is>
-      </c>
-      <c r="P14" t="n">
-        <v>3795</v>
       </c>
       <c r="Q14" t="n">
         <v>1.235289</v>
@@ -1366,8 +1392,10 @@
           <t>2024/04/29-18:30:07</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>89320420000001827946</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,13 +1434,13 @@
       <c r="N15" t="b">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="n">
+        <v>3806</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>1490025.520325</t>
         </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3806</v>
       </c>
       <c r="Q15" t="n">
         <v>1.245164</v>
@@ -1429,8 +1457,10 @@
           <t>2024/04/29-18:22:15</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>89320420000001827524</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1469,13 +1499,13 @@
       <c r="N16" t="b">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="n">
+        <v>3767</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>1528521.180153</t>
         </is>
-      </c>
-      <c r="P16" t="n">
-        <v>3767</v>
       </c>
       <c r="Q16" t="n">
         <v>1.2398</v>
@@ -1492,8 +1522,10 @@
           <t>2024/04/29-16:19:55</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>89320420000001827086</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1532,13 +1564,13 @@
       <c r="N17" t="b">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="n">
+        <v>3783</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>1517415.046692</t>
         </is>
-      </c>
-      <c r="P17" t="n">
-        <v>3783</v>
       </c>
       <c r="Q17" t="n">
         <v>1.23724</v>
@@ -1555,8 +1587,10 @@
           <t>2024/04/30-09:33:19</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>89320420000001827136</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1595,13 +1629,13 @@
       <c r="N18" t="b">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" t="n">
+        <v>3765</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>1525636.315346</t>
         </is>
-      </c>
-      <c r="P18" t="n">
-        <v>3765</v>
       </c>
       <c r="Q18" t="n">
         <v>1.25829</v>
@@ -1618,8 +1652,10 @@
           <t>2024/04/30-08:57:50</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>89320420000001827698</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,13 +1694,13 @@
       <c r="N19" t="b">
         <v>1</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="n">
+        <v>3769</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>1506793.498993</t>
         </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3769</v>
       </c>
       <c r="Q19" t="n">
         <v>1.253576</v>
@@ -1681,8 +1717,10 @@
           <t>2024/04/29-18:45:08</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>89320420000001827722</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1721,13 +1759,13 @@
       <c r="N20" t="b">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>3785</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>1551719.307899</t>
         </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3785</v>
       </c>
       <c r="Q20" t="n">
         <v>1.242848</v>
@@ -1744,8 +1782,10 @@
           <t>2024/04/29-15:19:58</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>89320420000001827177</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1784,13 +1824,13 @@
       <c r="N21" t="b">
         <v>1</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" t="n">
+        <v>3845</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>1482555.866241</t>
         </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3845</v>
       </c>
       <c r="Q21" t="n">
         <v>1.244311</v>
@@ -1807,8 +1847,10 @@
           <t>2024/04/29-15:29:43</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>89320420000001827912</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,13 +1889,13 @@
       <c r="N22" t="b">
         <v>1</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" t="n">
+        <v>3762</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>1471644.043922</t>
         </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3762</v>
       </c>
       <c r="Q22" t="n">
         <v>1.240735</v>
@@ -1870,8 +1912,10 @@
           <t>2024/04/30-09:07:15</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>89320420000001827391</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,13 +1954,13 @@
       <c r="N23" t="b">
         <v>1</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" t="n">
+        <v>2928</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>1514110.565186</t>
         </is>
-      </c>
-      <c r="P23" t="n">
-        <v>2928</v>
       </c>
       <c r="Q23" t="n">
         <v>1.258602</v>
@@ -1933,8 +1977,10 @@
           <t>2024/04/30-08:59:44</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>89320420000001827284</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,13 +2019,13 @@
       <c r="N24" t="b">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" t="n">
+        <v>3779</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>1507988.572121</t>
         </is>
-      </c>
-      <c r="P24" t="n">
-        <v>3779</v>
       </c>
       <c r="Q24" t="n">
         <v>1.255079</v>
@@ -1996,8 +2042,10 @@
           <t>2024/04/29-18:27:10</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>89320420000001826971</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,13 +2084,13 @@
       <c r="N25" t="b">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" t="n">
+        <v>3761</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>1539167.761803</t>
         </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3761</v>
       </c>
       <c r="Q25" t="n">
         <v>1.237118</v>
@@ -2059,8 +2107,10 @@
           <t>2024/04/29-16:46:26</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>89320420000001827540</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2099,13 +2149,13 @@
       <c r="N26" t="b">
         <v>1</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" t="n">
+        <v>3806</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>1542121.767998</t>
         </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3806</v>
       </c>
       <c r="Q26" t="n">
         <v>1.237931</v>
@@ -2122,8 +2172,10 @@
           <t>2024/04/29-15:19:17</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>89320420000001827011</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,13 +2214,13 @@
       <c r="N27" t="b">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" t="n">
+        <v>3749</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>1483013.033867</t>
         </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3749</v>
       </c>
       <c r="Q27" t="n">
         <v>1.244473</v>
@@ -2185,8 +2237,10 @@
           <t>2024/04/30-09:00:49</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>89320420000001827078</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2225,13 +2279,13 @@
       <c r="N28" t="b">
         <v>1</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" t="n">
+        <v>3156</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>1574385.762215</t>
         </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3156</v>
       </c>
       <c r="Q28" t="n">
         <v>1.437148</v>
@@ -2248,8 +2302,10 @@
           <t>2024/04/29-18:49:55</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>89320420000001827532</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2288,13 +2344,13 @@
       <c r="N29" t="b">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" t="n">
+        <v>3810</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>1495819.091797</t>
         </is>
-      </c>
-      <c r="P29" t="n">
-        <v>3810</v>
       </c>
       <c r="Q29" t="n">
         <v>1.232933</v>
@@ -2311,8 +2367,10 @@
           <t>2024/04/29-17:52:46</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>89320420000001827649</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2351,13 +2409,13 @@
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" t="n">
+        <v>3732</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>1512208.580971</t>
         </is>
-      </c>
-      <c r="P30" t="n">
-        <v>3732</v>
       </c>
       <c r="Q30" t="n">
         <v>1.24301</v>
@@ -2374,8 +2432,10 @@
           <t>2024/04/30-09:19:09</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>89320420000001827003</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2414,13 +2474,13 @@
       <c r="N31" t="b">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>3807</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>1509129.405022</t>
         </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3807</v>
       </c>
       <c r="Q31" t="n">
         <v>1.255242</v>
@@ -2437,8 +2497,10 @@
           <t>2024/04/29-16:47:06</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>89320420000001827847</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2477,13 +2539,13 @@
       <c r="N32" t="b">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" t="n">
+        <v>3795</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>1485105.156898</t>
         </is>
-      </c>
-      <c r="P32" t="n">
-        <v>3795</v>
       </c>
       <c r="Q32" t="n">
         <v>1.227447</v>
@@ -2500,8 +2562,10 @@
           <t>2024/04/29-18:51:02</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>89320420000001827888</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2540,13 +2604,13 @@
       <c r="N33" t="b">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>3742</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>1538736.820221</t>
         </is>
-      </c>
-      <c r="P33" t="n">
-        <v>3742</v>
       </c>
       <c r="Q33" t="n">
         <v>1.234314</v>
@@ -2563,8 +2627,10 @@
           <t>2024/04/29-17:46:54</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>89320420000001827219</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2603,13 +2669,13 @@
       <c r="N34" t="b">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O34" t="n">
+        <v>3794</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>1517829.89502</t>
         </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3794</v>
       </c>
       <c r="Q34" t="n">
         <v>1.232689</v>
@@ -2626,8 +2692,10 @@
           <t>2024/04/30-09:05:32</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>89320420000001827060</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2666,13 +2734,13 @@
       <c r="N35" t="b">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O35" t="n">
+        <v>3204</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>1510535.478592</t>
         </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3204</v>
       </c>
       <c r="Q35" t="n">
         <v>1.462527</v>
@@ -2689,8 +2757,10 @@
           <t>2024/04/30-08:58:50</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>89320420000001827755</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,13 +2799,13 @@
       <c r="N36" t="b">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="O36" t="n">
+        <v>3113</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>1508716.344833</t>
         </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3113</v>
       </c>
       <c r="Q36" t="n">
         <v>3.528045</v>
@@ -2752,8 +2822,10 @@
           <t>2024/04/29-18:14:21</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>89320420000001827029</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2792,13 +2864,13 @@
       <c r="N37" t="b">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O37" t="n">
+        <v>3746</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>1489461.064339</t>
         </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3746</v>
       </c>
       <c r="Q37" t="n">
         <v>1.235371</v>
@@ -2815,8 +2887,10 @@
           <t>2024/04/30-08:49:42</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>89320420000001827359</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2855,13 +2929,13 @@
       <c r="N38" t="b">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="O38" t="n">
+        <v>3757</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>1489945.650101</t>
         </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3757</v>
       </c>
       <c r="Q38" t="n">
         <v>1.275276</v>
@@ -2878,8 +2952,10 @@
           <t>2024/04/29-17:32:53</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>89320420000001827045</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,13 +2994,13 @@
       <c r="N39" t="b">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="n">
+        <v>3792</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>1507565.379143</t>
         </is>
-      </c>
-      <c r="P39" t="n">
-        <v>3792</v>
       </c>
       <c r="Q39" t="n">
         <v>1.240857</v>
@@ -2941,8 +3017,10 @@
           <t>2024/04/29-17:51:57</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>89320420000001827490</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2981,13 +3059,13 @@
       <c r="N40" t="b">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O40" t="n">
+        <v>3744</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>1504858.136177</t>
         </is>
-      </c>
-      <c r="P40" t="n">
-        <v>3744</v>
       </c>
       <c r="Q40" t="n">
         <v>1.230901</v>
@@ -3004,8 +3082,10 @@
           <t>2024/04/29-16:01:53</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>89320420000001827839</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3044,13 +3124,13 @@
       <c r="N41" t="b">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O41" t="n">
+        <v>3786</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>1508337.259293</t>
         </is>
-      </c>
-      <c r="P41" t="n">
-        <v>3786</v>
       </c>
       <c r="Q41" t="n">
         <v>1.233867</v>
@@ -3067,8 +3147,10 @@
           <t>2024/04/29-14:30:10</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>89320420000001827037</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,13 +3189,13 @@
       <c r="N42" t="b">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="O42" t="n">
+        <v>3799</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>1485083.699226</t>
         </is>
-      </c>
-      <c r="P42" t="n">
-        <v>3799</v>
       </c>
       <c r="Q42" t="n">
         <v>1.244473</v>
@@ -3130,8 +3212,10 @@
           <t>2024/04/30-08:56:38</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>89320420000001827482</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3170,13 +3254,13 @@
       <c r="N43" t="b">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="O43" t="n">
+        <v>3814</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>1498550.772667</t>
         </is>
-      </c>
-      <c r="P43" t="n">
-        <v>3814</v>
       </c>
       <c r="Q43" t="n">
         <v>1.259834</v>
@@ -3193,8 +3277,10 @@
           <t>2024/04/29-16:41:58</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>89320420000001827383</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3233,13 +3319,13 @@
       <c r="N44" t="b">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O44" t="n">
+        <v>3839</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>1537275.314331</t>
         </is>
-      </c>
-      <c r="P44" t="n">
-        <v>3839</v>
       </c>
       <c r="Q44" t="n">
         <v>1.239353</v>
@@ -3256,8 +3342,10 @@
           <t>2024/04/29-16:38:30</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>89320420000001827193</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,13 +3384,13 @@
       <c r="N45" t="b">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O45" t="n">
+        <v>3781</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>1499364.972115</t>
         </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3781</v>
       </c>
       <c r="Q45" t="n">
         <v>1.24236</v>
@@ -3319,8 +3407,10 @@
           <t>2024/04/30-09:08:04</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>89320420000001827144</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3359,13 +3449,13 @@
       <c r="N46" t="b">
         <v>1</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O46" t="n">
+        <v>3767</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>1507999.897003</t>
         </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3767</v>
       </c>
       <c r="Q46" t="n">
         <v>1.253698</v>
@@ -3382,8 +3472,10 @@
           <t>2024/04/29-16:11:57</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>89320420000001827300</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,13 +3514,13 @@
       <c r="N47" t="b">
         <v>1</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O47" t="n">
+        <v>3777</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>1537528.634071</t>
         </is>
-      </c>
-      <c r="P47" t="n">
-        <v>3777</v>
       </c>
       <c r="Q47" t="n">
         <v>1.25</v>
@@ -3445,8 +3537,10 @@
           <t>2024/04/30-08:52:30</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>89320420000001827102</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3485,13 +3579,13 @@
       <c r="N48" t="b">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O48" t="n">
+        <v>3792</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>1499885.91671</t>
         </is>
-      </c>
-      <c r="P48" t="n">
-        <v>3792</v>
       </c>
       <c r="Q48" t="n">
         <v>1.257314</v>
@@ -3508,8 +3602,10 @@
           <t>2024/04/29-16:42:37</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>89320420000001827581</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3548,13 +3644,13 @@
       <c r="N49" t="b">
         <v>1</v>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O49" t="n">
+        <v>3775</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>1526314.020157</t>
         </is>
-      </c>
-      <c r="P49" t="n">
-        <v>3775</v>
       </c>
       <c r="Q49" t="n">
         <v>1.248374</v>
@@ -3571,8 +3667,10 @@
           <t>2024/04/29-15:28:11</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>89320420000001827938</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3611,13 +3709,13 @@
       <c r="N50" t="b">
         <v>1</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O50" t="n">
+        <v>3819</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>1482112.407684</t>
         </is>
-      </c>
-      <c r="P50" t="n">
-        <v>3819</v>
       </c>
       <c r="Q50" t="n">
         <v>1.242645</v>
@@ -3634,8 +3732,10 @@
           <t>2024/04/29-09:31:35</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>89320420000001827664</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3674,13 +3774,13 @@
       <c r="N51" t="b">
         <v>1</v>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O51" t="n">
+        <v>3007</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>1507829.427719</t>
         </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3007</v>
       </c>
       <c r="Q51" t="n">
         <v>9.328884</v>
@@ -3697,8 +3797,10 @@
           <t>2024/04/30-09:30:49</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>89320420000001827516</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,13 +3839,13 @@
       <c r="N52" t="b">
         <v>1</v>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O52" t="n">
+        <v>3844</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>1528279.781342</t>
         </is>
-      </c>
-      <c r="P52" t="n">
-        <v>3844</v>
       </c>
       <c r="Q52" t="n">
         <v>1.255851</v>
@@ -3760,8 +3862,10 @@
           <t>2024/04/29-19:23:08</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>89320420000001827235</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3800,13 +3904,13 @@
       <c r="N53" t="b">
         <v>1</v>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O53" t="n">
+        <v>3769</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>1486668.586731</t>
         </is>
-      </c>
-      <c r="P53" t="n">
-        <v>3769</v>
       </c>
       <c r="Q53" t="n">
         <v>1.227853</v>
@@ -3823,8 +3927,10 @@
           <t>2024/04/29-16:37:47</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>89320420000001827409</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3863,13 +3969,13 @@
       <c r="N54" t="b">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O54" t="n">
+        <v>3765</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>1497761.011124</t>
         </is>
-      </c>
-      <c r="P54" t="n">
-        <v>3765</v>
       </c>
       <c r="Q54" t="n">
         <v>1.245733</v>
@@ -3886,8 +3992,10 @@
           <t>2024/04/29-16:44:27</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>89320420000001826997</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3926,13 +4034,13 @@
       <c r="N55" t="b">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="O55" t="n">
+        <v>3785</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>1489774.58477</t>
         </is>
-      </c>
-      <c r="P55" t="n">
-        <v>3785</v>
       </c>
       <c r="Q55" t="n">
         <v>1.250366</v>
@@ -3949,8 +4057,10 @@
           <t>2024/04/29-16:28:46</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>89320420000001827565</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3989,13 +4099,13 @@
       <c r="N56" t="b">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O56" t="n">
+        <v>3762</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>1558118.462563</t>
         </is>
-      </c>
-      <c r="P56" t="n">
-        <v>3762</v>
       </c>
       <c r="Q56" t="n">
         <v>1.248903</v>
@@ -4012,8 +4122,10 @@
           <t>2024/04/29-18:43:01</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>89320420000001827631</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4052,13 +4164,13 @@
       <c r="N57" t="b">
         <v>1</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="O57" t="n">
+        <v>3788</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>1494334.936142</t>
         </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3788</v>
       </c>
       <c r="Q57" t="n">
         <v>1.245814</v>
@@ -4075,8 +4187,10 @@
           <t>2024/04/30-09:27:18</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>89320420000001827573</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,13 +4229,13 @@
       <c r="N58" t="b">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="O58" t="n">
+        <v>3777</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>1521222.5914</t>
         </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3777</v>
       </c>
       <c r="Q58" t="n">
         <v>1.26154</v>
@@ -4138,8 +4252,10 @@
           <t>2024/04/29-16:28:02</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>89320420000001827813</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4178,13 +4294,13 @@
       <c r="N59" t="b">
         <v>1</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O59" t="n">
+        <v>3756</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>1501048.803329</t>
         </is>
-      </c>
-      <c r="P59" t="n">
-        <v>3756</v>
       </c>
       <c r="Q59" t="n">
         <v>1.238378</v>
@@ -4201,8 +4317,10 @@
           <t>2024/04/29-17:39:41</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>89320420000001827227</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4241,13 +4359,13 @@
       <c r="N60" t="b">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="O60" t="n">
+        <v>3783</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>1470674.276352</t>
         </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3783</v>
       </c>
       <c r="Q60" t="n">
         <v>1.255973</v>
@@ -4264,8 +4382,10 @@
           <t>2024/04/29-16:47:47</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>89320420000001827185</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4304,13 +4424,13 @@
       <c r="N61" t="b">
         <v>1</v>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O61" t="n">
+        <v>3779</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>1482309.699059</t>
         </is>
-      </c>
-      <c r="P61" t="n">
-        <v>3779</v>
       </c>
       <c r="Q61" t="n">
         <v>1.241588</v>
@@ -4327,8 +4447,10 @@
           <t>2024/04/29-16:22:03</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>89320420000001827508</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4367,13 +4489,13 @@
       <c r="N62" t="b">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="O62" t="n">
+        <v>3763</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>1540302.038193</t>
         </is>
-      </c>
-      <c r="P62" t="n">
-        <v>3763</v>
       </c>
       <c r="Q62" t="n">
         <v>1.247562</v>
@@ -4390,8 +4512,10 @@
           <t>2024/04/29-16:34:50</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>89320420000001827896</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4430,13 +4554,13 @@
       <c r="N63" t="b">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="O63" t="n">
+        <v>3771</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>1496621.966362</t>
         </is>
-      </c>
-      <c r="P63" t="n">
-        <v>3771</v>
       </c>
       <c r="Q63" t="n">
         <v>1.244026</v>
@@ -4453,8 +4577,10 @@
           <t>2024/04/29-16:40:35</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>89320420000001827201</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,13 +4619,13 @@
       <c r="N64" t="b">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="O64" t="n">
+        <v>3787</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>1501863.598824</t>
         </is>
-      </c>
-      <c r="P64" t="n">
-        <v>3787</v>
       </c>
       <c r="Q64" t="n">
         <v>1.246383</v>
@@ -4516,8 +4642,10 @@
           <t>2024/04/29-18:03:53</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>89320420000001827599</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4556,13 +4684,13 @@
       <c r="N65" t="b">
         <v>1</v>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="O65" t="n">
+        <v>3738</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>1493260.264397</t>
         </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3738</v>
       </c>
       <c r="Q65" t="n">
         <v>1.236183</v>
@@ -4579,8 +4707,10 @@
           <t>2024/04/29-17:59:36</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>89320420000001827805</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4619,13 +4749,13 @@
       <c r="N66" t="b">
         <v>1</v>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="O66" t="n">
+        <v>3802</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>1495231.389999</t>
         </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3802</v>
       </c>
       <c r="Q66" t="n">
         <v>1.237971</v>
@@ -4642,8 +4772,10 @@
           <t>2024/04/29-11:11:46</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>89320420000001827375</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,13 +4814,13 @@
       <c r="N67" t="b">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="O67" t="n">
+        <v>3812</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>1501923.203468</t>
         </is>
-      </c>
-      <c r="P67" t="n">
-        <v>3812</v>
       </c>
       <c r="Q67" t="n">
         <v>1.230779</v>
@@ -4705,8 +4837,10 @@
           <t>2024/04/30-08:55:33</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>89320420000001827904</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,13 +4879,13 @@
       <c r="N68" t="b">
         <v>1</v>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="O68" t="n">
+        <v>3759</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>1507166.028023</t>
         </is>
-      </c>
-      <c r="P68" t="n">
-        <v>3759</v>
       </c>
       <c r="Q68" t="n">
         <v>1.255608</v>
@@ -4768,8 +4902,10 @@
           <t>2024/04/29-18:38:59</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>89320420000001827268</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4808,13 +4944,13 @@
       <c r="N69" t="b">
         <v>1</v>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="O69" t="n">
+        <v>3815</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>1493939.757347</t>
         </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3815</v>
       </c>
       <c r="Q69" t="n">
         <v>1.221554</v>
@@ -4831,8 +4967,10 @@
           <t>2024/04/30-08:50:41</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>89320420000001827748</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4871,13 +5009,13 @@
       <c r="N70" t="b">
         <v>1</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O70" t="n">
+        <v>3819</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>1479456.424713</t>
         </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3819</v>
       </c>
       <c r="Q70" t="n">
         <v>1.264507</v>
@@ -4894,8 +5032,10 @@
           <t>2024/04/30-09:32:00</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>89320420000001827425</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4934,13 +5074,13 @@
       <c r="N71" t="b">
         <v>1</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="O71" t="n">
+        <v>3170</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>1527322.530746</t>
         </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3170</v>
       </c>
       <c r="Q71" t="n">
         <v>1.748647</v>
@@ -4957,8 +5097,10 @@
           <t>2024/04/30-08:53:32</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>89320420000001827714</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,13 +5139,13 @@
       <c r="N72" t="b">
         <v>1</v>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="O72" t="n">
+        <v>3752</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>1474988.460541</t>
         </is>
-      </c>
-      <c r="P72" t="n">
-        <v>3752</v>
       </c>
       <c r="Q72" t="n">
         <v>1.26406</v>
@@ -5020,8 +5162,10 @@
           <t>2024/04/29-11:10:36</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>89320420000001827987</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5060,13 +5204,13 @@
       <c r="N73" t="b">
         <v>1</v>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O73" t="n">
+        <v>3891</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>1505848.169327</t>
         </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3891</v>
       </c>
       <c r="Q73" t="n">
         <v>1.245286</v>
@@ -5083,8 +5227,10 @@
           <t>2024/04/29-15:26:33</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>89320420000001827607</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5123,13 +5269,13 @@
       <c r="N74" t="b">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O74" t="n">
+        <v>3752</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>1546791.791916</t>
         </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3752</v>
       </c>
       <c r="Q74" t="n">
         <v>1.243132</v>
@@ -5146,8 +5292,10 @@
           <t>2024/04/29-17:49:17</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>89320420000001827821</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5186,13 +5334,13 @@
       <c r="N75" t="b">
         <v>1</v>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O75" t="n">
+        <v>3759</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>1491500.139236</t>
         </is>
-      </c>
-      <c r="P75" t="n">
-        <v>3759</v>
       </c>
       <c r="Q75" t="n">
         <v>1.218872</v>
@@ -5209,8 +5357,10 @@
           <t>2024/04/29-15:25:44</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>89320420000001827151</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5249,13 +5399,13 @@
       <c r="N76" t="b">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O76" t="n">
+        <v>3771</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>1552410.721779</t>
         </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3771</v>
       </c>
       <c r="Q76" t="n">
         <v>1.234842</v>
@@ -5272,8 +5422,10 @@
           <t>2024/04/29-16:30:09</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>89320420000001827169</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5312,13 +5464,13 @@
       <c r="N77" t="b">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="O77" t="n">
+        <v>3783</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>1502971.64917</t>
         </is>
-      </c>
-      <c r="P77" t="n">
-        <v>3783</v>
       </c>
       <c r="Q77" t="n">
         <v>1.240694</v>
@@ -5335,8 +5487,10 @@
           <t>2024/04/29-15:58:47</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>89320420000001827615</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5375,13 +5529,13 @@
       <c r="N78" t="b">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="O78" t="n">
+        <v>3770</v>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>1545722.484589</t>
         </is>
-      </c>
-      <c r="P78" t="n">
-        <v>3770</v>
       </c>
       <c r="Q78" t="n">
         <v>1.246221</v>
@@ -5398,8 +5552,10 @@
           <t>2024/04/29-15:20:47</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>89320420000001827656</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5438,13 +5594,13 @@
       <c r="N79" t="b">
         <v>1</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O79" t="n">
+        <v>3765</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>1533449.888229</t>
         </is>
-      </c>
-      <c r="P79" t="n">
-        <v>3765</v>
       </c>
       <c r="Q79" t="n">
         <v>1.231063</v>
@@ -5461,8 +5617,10 @@
           <t>2024/04/30-09:22:38</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>89320420000001827367</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,13 +5659,13 @@
       <c r="N80" t="b">
         <v>1</v>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O80" t="n">
+        <v>3729</v>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>1519829.034805</t>
         </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3729</v>
       </c>
       <c r="Q80" t="n">
         <v>1.268733</v>
@@ -5524,8 +5682,10 @@
           <t>2024/04/30-08:54:33</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>89320420000001827623</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5564,13 +5724,13 @@
       <c r="N81" t="b">
         <v>1</v>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O81" t="n">
+        <v>3795</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>1505511.403084</t>
         </is>
-      </c>
-      <c r="P81" t="n">
-        <v>3795</v>
       </c>
       <c r="Q81" t="n">
         <v>1.264669</v>
@@ -5587,8 +5747,10 @@
           <t>2024/04/29-15:59:59</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>89320420000001827979</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5627,13 +5789,13 @@
       <c r="N82" t="b">
         <v>1</v>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O82" t="n">
+        <v>3773</v>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>1491625.905037</t>
         </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3773</v>
       </c>
       <c r="Q82" t="n">
         <v>1.247968</v>
@@ -5650,8 +5812,10 @@
           <t>2024/04/30-09:06:20</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>89320420000001827052</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5690,13 +5854,13 @@
       <c r="N83" t="b">
         <v>1</v>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O83" t="n">
+        <v>3839</v>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>1527778.506279</t>
         </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3839</v>
       </c>
       <c r="Q83" t="n">
         <v>1.26276</v>
@@ -5713,8 +5877,10 @@
           <t>2024/04/29-15:21:27</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>89320420000001827292</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5753,13 +5919,13 @@
       <c r="N84" t="b">
         <v>1</v>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="O84" t="n">
+        <v>3769</v>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>1476029.753685</t>
         </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3769</v>
       </c>
       <c r="Q84" t="n">
         <v>1.240206</v>
@@ -5776,8 +5942,10 @@
           <t>2024/04/30-09:04:30</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>89320420000001827433</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5816,13 +5984,13 @@
       <c r="N85" t="b">
         <v>1</v>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O85" t="n">
+        <v>3765</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>1513825.058937</t>
         </is>
-      </c>
-      <c r="P85" t="n">
-        <v>3765</v>
       </c>
       <c r="Q85" t="n">
         <v>1.266783</v>
@@ -5839,8 +6007,10 @@
           <t>2024/04/29-15:11:09</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>89320420000001827417</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5879,13 +6049,13 @@
       <c r="N86" t="b">
         <v>1</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O86" t="n">
+        <v>3738</v>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>1480219.364166</t>
         </is>
-      </c>
-      <c r="P86" t="n">
-        <v>3738</v>
       </c>
       <c r="Q86" t="n">
         <v>1.248334</v>
@@ -5902,8 +6072,10 @@
           <t>2024/04/29-15:28:57</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>89320420000001827995</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,13 +6114,13 @@
       <c r="N87" t="b">
         <v>1</v>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O87" t="n">
+        <v>3734</v>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>1483948.230743</t>
         </is>
-      </c>
-      <c r="P87" t="n">
-        <v>3734</v>
       </c>
       <c r="Q87" t="n">
         <v>1.239109</v>
@@ -5965,8 +6137,10 @@
           <t>2024/04/29-19:11:30</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>89320420000001827797</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6005,13 +6179,13 @@
       <c r="N88" t="b">
         <v>1</v>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O88" t="n">
+        <v>3785</v>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>1506412.625313</t>
         </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3785</v>
       </c>
       <c r="Q88" t="n">
         <v>1.237565</v>
@@ -6028,8 +6202,10 @@
           <t>2024/04/29-18:28:30</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>89320420000001827334</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6068,13 +6244,13 @@
       <c r="N89" t="b">
         <v>1</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O89" t="n">
+        <v>3774</v>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>1498013.734818</t>
         </is>
-      </c>
-      <c r="P89" t="n">
-        <v>3774</v>
       </c>
       <c r="Q89" t="n">
         <v>1.234111</v>
@@ -6091,8 +6267,10 @@
           <t>2024/04/29-16:34:05</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>89320420000001826989</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6131,13 +6309,13 @@
       <c r="N90" t="b">
         <v>1</v>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O90" t="n">
+        <v>3782</v>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>1494242.548943</t>
         </is>
-      </c>
-      <c r="P90" t="n">
-        <v>3782</v>
       </c>
       <c r="Q90" t="n">
         <v>1.237931</v>
@@ -6154,8 +6332,10 @@
           <t>2024/04/30-09:18:01</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>89320420000001827094</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,13 +6374,13 @@
       <c r="N91" t="b">
         <v>1</v>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="O91" t="n">
+        <v>4148</v>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>1482487.916946</t>
         </is>
-      </c>
-      <c r="P91" t="n">
-        <v>4148</v>
       </c>
       <c r="Q91" t="n">
         <v>1.259468</v>
@@ -6217,8 +6397,10 @@
           <t>2024/04/29-18:13:32</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>89320420000001827474</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6257,13 +6439,13 @@
       <c r="N92" t="b">
         <v>1</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O92" t="n">
+        <v>3750</v>
+      </c>
+      <c r="P92" t="inlineStr">
         <is>
           <t>1483269.929886</t>
         </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3750</v>
       </c>
       <c r="Q92" t="n">
         <v>1.240328</v>
@@ -6280,8 +6462,10 @@
           <t>2024/04/29-15:27:22</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>89320420000001827342</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6320,13 +6504,13 @@
       <c r="N93" t="b">
         <v>1</v>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O93" t="n">
+        <v>3796</v>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>1486059.427261</t>
         </is>
-      </c>
-      <c r="P93" t="n">
-        <v>3796</v>
       </c>
       <c r="Q93" t="n">
         <v>1.236752</v>
@@ -6343,8 +6527,10 @@
           <t>2024/04/29-16:15:58</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>89320420000001827920</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6383,13 +6569,13 @@
       <c r="N94" t="b">
         <v>1</v>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O94" t="n">
+        <v>3881</v>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>1580662.727356</t>
         </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3881</v>
       </c>
       <c r="Q94" t="n">
         <v>1.245123</v>
@@ -6406,8 +6592,10 @@
           <t>2024/04/29-14:11:07</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>89320420000001827128</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6446,13 +6634,13 @@
       <c r="N95" t="b">
         <v>1</v>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O95" t="n">
+        <v>3774</v>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>1491140.723228</t>
         </is>
-      </c>
-      <c r="P95" t="n">
-        <v>3774</v>
       </c>
       <c r="Q95" t="n">
         <v>1.224521</v>
@@ -6469,8 +6657,10 @@
           <t>2024/04/29-18:47:35</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>89320420000001827110</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6509,13 +6699,13 @@
       <c r="N96" t="b">
         <v>1</v>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O96" t="n">
+        <v>3767</v>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>1544851.660728</t>
         </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3767</v>
       </c>
       <c r="Q96" t="n">
         <v>1.242198</v>
@@ -6532,8 +6722,10 @@
           <t>2024/04/29-16:39:53</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>89320420000001827789</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6572,13 +6764,13 @@
       <c r="N97" t="b">
         <v>1</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O97" t="n">
+        <v>3812</v>
+      </c>
+      <c r="P97" t="inlineStr">
         <is>
           <t>1501226.425171</t>
         </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3812</v>
       </c>
       <c r="Q97" t="n">
         <v>1.236509</v>
@@ -6595,8 +6787,10 @@
           <t>2024/04/29-15:24:35</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>89320420000001827318</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,13 +6829,13 @@
       <c r="N98" t="b">
         <v>1</v>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="O98" t="n">
+        <v>3798</v>
+      </c>
+      <c r="P98" t="inlineStr">
         <is>
           <t>1501744.389534</t>
         </is>
-      </c>
-      <c r="P98" t="n">
-        <v>3798</v>
       </c>
       <c r="Q98" t="n">
         <v>1.235574</v>
@@ -6658,7 +6852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,12 +6933,37 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>Voltage (mV)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Voltage (mV)</t>
+          <t>Wifi Version</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Modem version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>EEPROM1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>EEPROM2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Temp Offset</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>EEPROM3</t>
         </is>
       </c>
     </row>
@@ -6759,8 +6978,10 @@
           <t>2024/04/24-16:04:38</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>89320420000001827805</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -6799,8 +7020,38 @@
       <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
+      <c r="O2" t="n">
         <v>3672</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0x0F51</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0x23E0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -6814,8 +7065,10 @@
           <t>2024/04/24-16:05:39</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>89320420000001827797</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -6854,8 +7107,38 @@
       <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="O3" t="n">
         <v>3680</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0x0F64</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0x23E1</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -6869,8 +7152,10 @@
           <t>2024/04/27-15:03:45</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>89320420000001827748</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -6909,8 +7194,38 @@
       <c r="N4" t="b">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="O4" t="n">
         <v>3688</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0x0F71</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0x226A</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -6924,8 +7239,10 @@
           <t>2024/04/26-14:05:05</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89320420000001827730</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6964,8 +7281,38 @@
       <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
+      <c r="O5" t="n">
         <v>3641</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0x0F7F</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0x226B</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -6979,8 +7326,10 @@
           <t>2024/04/27-14:45:29</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>89320420000001827094</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -7019,8 +7368,38 @@
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
+      <c r="O6" t="n">
         <v>3679</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0x0F83</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0x1868</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -7034,8 +7413,10 @@
           <t>2024/04/27-14:43:57</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>89320420000001827102</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -7074,8 +7455,38 @@
       <c r="N7" t="b">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="O7" t="n">
         <v>3661</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0x1867</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -7089,8 +7500,10 @@
           <t>2024/04/27-15:58:21</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>89320420000001827037</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -7129,8 +7542,38 @@
       <c r="N8" t="b">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="O8" t="n">
         <v>3668</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0x0F6A</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0x186E</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -7144,8 +7587,10 @@
           <t>2024/04/27-14:52:18</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>89320420000001827045</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -7184,8 +7629,38 @@
       <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="O9" t="n">
         <v>3628</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0x0F5C</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0x186D</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -7199,8 +7674,10 @@
           <t>2024/04/27-13:46:49</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>89320420000001827409</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -7239,8 +7716,38 @@
       <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="O10" t="n">
         <v>3639</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0x1D7C</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -7254,8 +7761,10 @@
           <t>2024/04/27-14:48:16</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>89320420000001827193</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -7294,8 +7803,38 @@
       <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="O11" t="n">
         <v>3624</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0x0F6E</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0x1AB9</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -7309,8 +7848,10 @@
           <t>2024/04/27-15:55:42</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>89320420000001827292</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -7349,8 +7890,38 @@
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="O12" t="n">
         <v>3655</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0x0F60</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0x1D48</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -7364,8 +7935,10 @@
           <t>2024/04/27-16:12:12</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>89320420000001827417</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -7404,8 +7977,38 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="O13" t="n">
         <v>3626</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0x0F65</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0x1D7B</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -7419,8 +8022,10 @@
           <t>2024/04/27-14:57:21</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>89320420000001827219</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -7459,8 +8064,38 @@
       <c r="N14" t="b">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="O14" t="n">
         <v>3665</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0x0F75</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0x1AF5</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -7474,8 +8109,10 @@
           <t>2024/04/27-16:01:08</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>89320420000001827300</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -7514,8 +8151,38 @@
       <c r="N15" t="b">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="O15" t="n">
         <v>3637</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0x0F6E</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0x1D47</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -7529,8 +8196,10 @@
           <t>2024/04/27-15:07:14</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>89320420000001827425</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -7569,8 +8238,38 @@
       <c r="N16" t="b">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="O16" t="n">
         <v>3642</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0x0FDC</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0x1D7A</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -7584,8 +8283,10 @@
           <t>2024/04/27-14:55:43</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>89320420000001827227</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -7624,8 +8325,38 @@
       <c r="N17" t="b">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="O17" t="n">
         <v>3649</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0x0FE3</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0x1AF4</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -7639,8 +8370,10 @@
           <t>2024/04/27-16:04:12</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>89320420000001827656</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -7679,8 +8412,38 @@
       <c r="N18" t="b">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="O18" t="n">
         <v>3654</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0x2259</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -7694,8 +8457,10 @@
           <t>2024/04/26-18:05:11</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>89320420000001827664</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -7734,8 +8499,38 @@
       <c r="N19" t="b">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
+      <c r="O19" t="n">
         <v>3637</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0x0F63</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0x2257</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -7749,8 +8544,10 @@
           <t>2024/04/27-15:06:10</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>89320420000001827235</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -7789,8 +8586,38 @@
       <c r="N20" t="b">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
+      <c r="O20" t="n">
         <v>3675</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0x0F65</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0x1AF3</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -7804,8 +8631,10 @@
           <t>2024/04/26-18:01:19</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>89320420000001827243</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -7844,8 +8673,38 @@
       <c r="N21" t="b">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
+      <c r="O21" t="n">
         <v>3666</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0x0F6D</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0x1AF2</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -7859,8 +8718,10 @@
           <t>2024/04/27-14:42:33</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>89320420000001827441</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -7899,8 +8760,38 @@
       <c r="N22" t="b">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
+      <c r="O22" t="n">
         <v>3686</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0x0F7B</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0x1D78</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -7914,8 +8805,10 @@
           <t>2024/04/27-16:09:27</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>89320420000001827375</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -7954,8 +8847,38 @@
       <c r="N23" t="b">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
+      <c r="O23" t="n">
         <v>3610</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0x0FA8</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0x1D7F</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -7969,8 +8892,10 @@
           <t>2024/04/27-14:35:55</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>89320420000001827458</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -8009,8 +8934,38 @@
       <c r="N24" t="b">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
+      <c r="O24" t="n">
         <v>3637</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0x0F78</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0x1D77</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -8024,8 +8979,10 @@
           <t>2024/04/27-16:05:29</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>89320420000001827318</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -8064,8 +9021,38 @@
       <c r="N25" t="b">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
+      <c r="O25" t="n">
         <v>3667</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0x0F77</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0x1D46</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -8079,8 +9066,10 @@
           <t>2024/04/27-14:51:12</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>89320420000001827698</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -8119,8 +9108,38 @@
       <c r="N26" t="b">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
+      <c r="O26" t="n">
         <v>3632</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0x0F71</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0x2254</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -8134,8 +9153,10 @@
           <t>2024/04/26-18:03:46</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>89320420000001827706</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -8174,8 +9195,38 @@
       <c r="N27" t="b">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
+      <c r="O27" t="n">
         <v>3622</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0x0F71</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0x2253</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -8189,8 +9240,10 @@
           <t>2024/04/27-15:14:02</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>89320420000001827326</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -8229,8 +9282,38 @@
       <c r="N28" t="b">
         <v>1</v>
       </c>
-      <c r="P28" t="n">
+      <c r="O28" t="n">
         <v>3625</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0x0FE0</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0x1D45</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -8244,8 +9327,10 @@
           <t>2024/04/27-14:40:21</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>89320420000001827201</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -8284,8 +9369,38 @@
       <c r="N29" t="b">
         <v>1</v>
       </c>
-      <c r="P29" t="n">
+      <c r="O29" t="n">
         <v>3638</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0x0F80</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0x1AF7</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -8299,8 +9414,10 @@
           <t>2024/04/27-15:08:32</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>89320420000001827391</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -8339,8 +9456,38 @@
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="P30" t="n">
+      <c r="O30" t="n">
         <v>3642</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0x0F6F</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0x1D7D</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -8354,8 +9501,10 @@
           <t>2024/04/26-18:02:21</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>89320420000001827466</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -8394,8 +9543,38 @@
       <c r="N31" t="b">
         <v>1</v>
       </c>
-      <c r="P31" t="n">
+      <c r="O31" t="n">
         <v>3657</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0x0F5F</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0x1FD1</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -8409,8 +9588,10 @@
           <t>2024/04/27-15:19:48</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>89320420000001827433</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -8449,8 +9630,38 @@
       <c r="N32" t="b">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
+      <c r="O32" t="n">
         <v>3661</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0x0F81</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0x1D79</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -8464,8 +9675,10 @@
           <t>2024/04/27-14:49:41</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>89320420000001827383</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -8504,8 +9717,38 @@
       <c r="N33" t="b">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
+      <c r="O33" t="n">
         <v>3686</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0x0F4A</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0x1D7E</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -8519,8 +9762,10 @@
           <t>2024/04/27-14:53:55</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>89320420000001827334</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -8559,8 +9804,38 @@
       <c r="N34" t="b">
         <v>1</v>
       </c>
-      <c r="P34" t="n">
+      <c r="O34" t="n">
         <v>3638</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0x0F51</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0x1D44</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -8574,8 +9849,10 @@
           <t>2024/04/27-14:46:44</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>89320420000001827789</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -8614,8 +9891,38 @@
       <c r="N35" t="b">
         <v>1</v>
       </c>
-      <c r="P35" t="n">
+      <c r="O35" t="n">
         <v>3666</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0x0F62</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0x23E2</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -8629,8 +9936,10 @@
           <t>2024/04/27-14:59:14</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>89320420000001827003</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -8669,8 +9978,38 @@
       <c r="N36" t="b">
         <v>1</v>
       </c>
-      <c r="P36" t="n">
+      <c r="O36" t="n">
         <v>3674</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0x0F6E</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0x1832</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -8684,8 +10023,10 @@
           <t>2024/04/27-14:37:06</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>89320420000001827276</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -8724,8 +10065,38 @@
       <c r="N37" t="b">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
+      <c r="O37" t="n">
         <v>3659</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0x0F9C</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0x1AEF</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -8739,8 +10110,10 @@
           <t>2024/04/27-15:11:18</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>89320420000001827078</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -8779,8 +10152,38 @@
       <c r="N38" t="b">
         <v>1</v>
       </c>
-      <c r="P38" t="n">
+      <c r="O38" t="n">
         <v>3655</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0x0FB9</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0x186A</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -8794,8 +10197,10 @@
           <t>2024/04/27-15:00:27</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>89320420000001827284</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -8834,8 +10239,38 @@
       <c r="N39" t="b">
         <v>1</v>
       </c>
-      <c r="P39" t="n">
+      <c r="O39" t="n">
         <v>3614</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0x0F75</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0x1D49</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -8849,8 +10284,10 @@
           <t>2024/04/27-15:17:27</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>89320420000001827086</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -8889,8 +10326,38 @@
       <c r="N40" t="b">
         <v>1</v>
       </c>
-      <c r="P40" t="n">
+      <c r="O40" t="n">
         <v>3667</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0x0F67</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0x1869</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -8904,8 +10371,10 @@
           <t>2024/04/27-15:09:47</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>89320420000001827060</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -8944,8 +10413,38 @@
       <c r="N41" t="b">
         <v>1</v>
       </c>
-      <c r="P41" t="n">
+      <c r="O41" t="n">
         <v>3653</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0x0F52</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0x186B</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -8959,8 +10458,10 @@
           <t>2024/04/27-15:01:49</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>89320420000001827052</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -8999,8 +10500,38 @@
       <c r="N42" t="b">
         <v>1</v>
       </c>
-      <c r="P42" t="n">
+      <c r="O42" t="n">
         <v>3653</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0x0F7C</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0x186C</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -9014,8 +10545,10 @@
           <t>2024/04/27-14:31:50</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>89320420000001827342</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -9054,8 +10587,38 @@
       <c r="N43" t="b">
         <v>1</v>
       </c>
-      <c r="P43" t="n">
+      <c r="O43" t="n">
         <v>3645</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0x0F72</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0x1D43</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -9069,8 +10632,10 @@
           <t>2024/04/27-15:18:21</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>89320420000001827771</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -9109,8 +10674,38 @@
       <c r="N44" t="b">
         <v>1</v>
       </c>
-      <c r="P44" t="n">
+      <c r="O44" t="n">
         <v>3665</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0x0F8E</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>0x23E3</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -9124,8 +10719,10 @@
           <t>2024/04/27-14:22:47</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>89320420000001827516</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -9164,8 +10761,38 @@
       <c r="N45" t="b">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
+      <c r="O45" t="n">
         <v>3659</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0x0F64</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>0x1FCC</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -9179,8 +10806,10 @@
           <t>2024/04/27-14:39:38</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>89320420000001826997</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -9219,8 +10848,38 @@
       <c r="N46" t="b">
         <v>1</v>
       </c>
-      <c r="P46" t="n">
+      <c r="O46" t="n">
         <v>3632</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0x0F8B</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>0x1833</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -9234,8 +10893,10 @@
           <t>2024/04/27-14:33:31</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>89320420000001827524</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -9274,8 +10935,38 @@
       <c r="N47" t="b">
         <v>1</v>
       </c>
-      <c r="P47" t="n">
+      <c r="O47" t="n">
         <v>3646</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0x0FC5</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0x1FCB</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -9289,8 +10980,10 @@
           <t>2024/04/27-14:08:33</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>89320420000001827359</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -9329,8 +11022,38 @@
       <c r="N48" t="b">
         <v>1</v>
       </c>
-      <c r="P48" t="n">
+      <c r="O48" t="n">
         <v>3683</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>0x0F74</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>0x1D42</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -9344,8 +11067,10 @@
           <t>2024/04/27-14:18:32</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>89320420000001827367</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -9384,8 +11109,38 @@
       <c r="N49" t="b">
         <v>1</v>
       </c>
-      <c r="P49" t="n">
+      <c r="O49" t="n">
         <v>3679</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>0x0F6B</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>0x1D41</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -9399,8 +11154,10 @@
           <t>2024/04/27-13:58:32</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>89320420000001827714</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -9439,8 +11196,38 @@
       <c r="N50" t="b">
         <v>1</v>
       </c>
-      <c r="P50" t="n">
+      <c r="O50" t="n">
         <v>3643</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0x0F5C</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>0x2252</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -9454,8 +11241,10 @@
           <t>2024/04/27-14:17:02</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>89320420000001827581</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -9494,8 +11283,38 @@
       <c r="N51" t="b">
         <v>1</v>
       </c>
-      <c r="P51" t="n">
+      <c r="O51" t="n">
         <v>3629</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0x0F7C</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>0x2004</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -9509,8 +11328,10 @@
           <t>2024/04/27-14:12:43</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>89320420000001827573</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -9549,8 +11370,38 @@
       <c r="N52" t="b">
         <v>1</v>
       </c>
-      <c r="P52" t="n">
+      <c r="O52" t="n">
         <v>3658</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0x0F8C</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>0x2005</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -9564,8 +11415,10 @@
           <t>2024/04/27-15:45:31</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>89320420000001827722</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -9604,8 +11457,38 @@
       <c r="N53" t="b">
         <v>1</v>
       </c>
-      <c r="P53" t="n">
+      <c r="O53" t="n">
         <v>3645</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>0x0FD7</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>0x2251</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -9619,8 +11502,10 @@
           <t>2024/04/27-14:31:07</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>89320420000001827763</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -9659,8 +11544,38 @@
       <c r="N54" t="b">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
+      <c r="O54" t="n">
         <v>3637</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0x0F66</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>0x23E4</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -9674,8 +11589,10 @@
           <t>2024/04/27-15:12:42</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>89320420000001827755</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -9714,8 +11631,38 @@
       <c r="N55" t="b">
         <v>1</v>
       </c>
-      <c r="P55" t="n">
+      <c r="O55" t="n">
         <v>3708</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0x0F80</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>0x23E5</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -9729,8 +11676,10 @@
           <t>2024/04/27-14:02:51</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>89320420000001827136</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -9769,8 +11718,38 @@
       <c r="N56" t="b">
         <v>1</v>
       </c>
-      <c r="P56" t="n">
+      <c r="O56" t="n">
         <v>3638</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0x0F69</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>0x1ABF</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -9784,8 +11763,10 @@
           <t>2024/04/27-13:57:08</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>89320420000001827144</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -9824,8 +11805,38 @@
       <c r="N57" t="b">
         <v>1</v>
       </c>
-      <c r="P57" t="n">
+      <c r="O57" t="n">
         <v>3654</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0x0F6C</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>0x1ABE</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -9839,8 +11850,10 @@
           <t>2024/04/27-15:48:58</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>89320420000001827128</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -9879,8 +11892,38 @@
       <c r="N58" t="b">
         <v>1</v>
       </c>
-      <c r="P58" t="n">
+      <c r="O58" t="n">
         <v>3647</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>0x0FED</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>0x1AC0</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -9894,8 +11937,10 @@
           <t>2024/04/27-13:49:26</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>89320420000001827110</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -9934,8 +11979,38 @@
       <c r="N59" t="b">
         <v>1</v>
       </c>
-      <c r="P59" t="n">
+      <c r="O59" t="n">
         <v>3624</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0x0F65</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>0x1AC1</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -9949,8 +12024,10 @@
           <t>2024/04/27-15:56:39</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>89320420000001827987</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -9989,8 +12066,38 @@
       <c r="N60" t="b">
         <v>1</v>
       </c>
-      <c r="P60" t="n">
+      <c r="O60" t="n">
         <v>3659</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>0x0FA1</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>0x15E4</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -10004,8 +12111,10 @@
           <t>2024/04/27-15:31:04</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>89320420000001827813</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -10044,8 +12153,38 @@
       <c r="N61" t="b">
         <v>1</v>
       </c>
-      <c r="P61" t="n">
+      <c r="O61" t="n">
         <v>3647</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>0x0F74</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>0x15E5</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -10059,8 +12198,10 @@
           <t>2024/04/27-15:34:03</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>89320420000001827862</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -10099,8 +12240,38 @@
       <c r="N62" t="b">
         <v>1</v>
       </c>
-      <c r="P62" t="n">
+      <c r="O62" t="n">
         <v>3676</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>0x0F68</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>0x15E0</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -10114,8 +12285,10 @@
           <t>2024/04/27-15:29:34</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>89320420000001827979</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -10154,8 +12327,38 @@
       <c r="N63" t="b">
         <v>1</v>
       </c>
-      <c r="P63" t="n">
+      <c r="O63" t="n">
         <v>3659</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>0x0F85</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>0x15AB</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -10169,8 +12372,10 @@
           <t>2024/04/27-15:32:35</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>89320420000001827557</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -10209,8 +12414,38 @@
       <c r="N64" t="b">
         <v>1</v>
       </c>
-      <c r="P64" t="n">
+      <c r="O64" t="n">
         <v>3678</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>0x0F5C</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>0x2007</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -10224,8 +12459,10 @@
           <t>2024/04/27-15:24:29</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>89320420000001826989</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -10264,8 +12501,38 @@
       <c r="N65" t="b">
         <v>1</v>
       </c>
-      <c r="P65" t="n">
+      <c r="O65" t="n">
         <v>3676</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>0x0F5C</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>0x1834</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -10279,8 +12546,10 @@
           <t>2024/04/27-15:26:32</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>89320420000001826971</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -10319,8 +12588,38 @@
       <c r="N66" t="b">
         <v>1</v>
       </c>
-      <c r="P66" t="n">
+      <c r="O66" t="n">
         <v>3649</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>0x0FC5</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>0x1835</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -10334,8 +12633,10 @@
           <t>2024/04/27-15:28:11</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>89320420000001827870</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -10374,8 +12675,38 @@
       <c r="N67" t="b">
         <v>1</v>
       </c>
-      <c r="P67" t="n">
+      <c r="O67" t="n">
         <v>3655</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>0x15E1</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -10389,8 +12720,10 @@
           <t>2024/04/27-13:48:41</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>89320420000001827896</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -10429,8 +12762,38 @@
       <c r="N68" t="b">
         <v>1</v>
       </c>
-      <c r="P68" t="n">
+      <c r="O68" t="n">
         <v>3630</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>0x0F99</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>0x15AA</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -10444,8 +12807,10 @@
           <t>2024/04/27-15:39:39</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>89320420000001827565</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -10484,8 +12849,38 @@
       <c r="N69" t="b">
         <v>1</v>
       </c>
-      <c r="P69" t="n">
+      <c r="O69" t="n">
         <v>3657</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>0x0F71</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>0x2006</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -10499,8 +12894,10 @@
           <t>2024/04/27-15:59:46</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>89320420000001827011</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -10539,8 +12936,38 @@
       <c r="N70" t="b">
         <v>1</v>
       </c>
-      <c r="P70" t="n">
+      <c r="O70" t="n">
         <v>3659</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>0x0F60</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>0x1831</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -10554,8 +12981,10 @@
           <t>2024/04/27-14:01:41</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>89320420000001827029</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -10594,8 +13023,38 @@
       <c r="N71" t="b">
         <v>1</v>
       </c>
-      <c r="P71" t="n">
+      <c r="O71" t="n">
         <v>3649</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>0x0FE0</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>0x186F</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -10609,8 +13068,10 @@
           <t>2024/04/27-15:42:36</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>89320420000001827672</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -10649,8 +13110,38 @@
       <c r="N72" t="b">
         <v>1</v>
       </c>
-      <c r="P72" t="n">
+      <c r="O72" t="n">
         <v>3670</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>0x0F96</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>0x2256</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -10664,8 +13155,10 @@
           <t>2024/04/27-15:36:51</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>89320420000001827680</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -10704,8 +13197,38 @@
       <c r="N73" t="b">
         <v>1</v>
       </c>
-      <c r="P73" t="n">
+      <c r="O73" t="n">
         <v>3679</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>0x2255</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -10719,8 +13242,10 @@
           <t>2024/04/27-16:07:05</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>89320420000001827151</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10759,8 +13284,38 @@
       <c r="N74" t="b">
         <v>1</v>
       </c>
-      <c r="P74" t="n">
+      <c r="O74" t="n">
         <v>3684</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>0x0F8A</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>0x1ABD</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -10774,8 +13329,10 @@
           <t>2024/04/27-16:10:53</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>89320420000001827888</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -10814,8 +13371,38 @@
       <c r="N75" t="b">
         <v>1</v>
       </c>
-      <c r="P75" t="n">
+      <c r="O75" t="n">
         <v>3630</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>0x0F67</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>0x15E2</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -10829,8 +13416,10 @@
           <t>2024/04/27-15:47:29</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>89320420000001827920</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10869,8 +13458,38 @@
       <c r="N76" t="b">
         <v>1</v>
       </c>
-      <c r="P76" t="n">
+      <c r="O76" t="n">
         <v>3650</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>0x0F66</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>0x15AC</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -10884,8 +13503,10 @@
           <t>2024/04/27-14:34:53</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>89320420000001827938</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10924,8 +13545,38 @@
       <c r="N77" t="b">
         <v>1</v>
       </c>
-      <c r="P77" t="n">
+      <c r="O77" t="n">
         <v>3672</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>0x0F6D</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>0x15AD</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -10939,8 +13590,10 @@
           <t>2024/04/27-15:21:13</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>89320420000001827169</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -10979,8 +13632,38 @@
       <c r="N78" t="b">
         <v>1</v>
       </c>
-      <c r="P78" t="n">
+      <c r="O78" t="n">
         <v>3671</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>0x0F62</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>0x1ABC</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -10994,8 +13677,10 @@
           <t>2024/04/27-15:51:12</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>89320420000001827631</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -11034,8 +13719,38 @@
       <c r="N79" t="b">
         <v>1</v>
       </c>
-      <c r="P79" t="n">
+      <c r="O79" t="n">
         <v>3638</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>0x0F5A</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>0x1FFF</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -11049,8 +13764,10 @@
           <t>2024/04/27-16:02:42</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>89320420000001827995</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -11089,8 +13806,38 @@
       <c r="N80" t="b">
         <v>1</v>
       </c>
-      <c r="P80" t="n">
+      <c r="O80" t="n">
         <v>3616</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>0x0F70</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>0x15E3</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -11104,8 +13851,10 @@
           <t>2024/04/27-14:37:50</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>89320420000001827185</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -11144,8 +13893,38 @@
       <c r="N81" t="b">
         <v>1</v>
       </c>
-      <c r="P81" t="n">
+      <c r="O81" t="n">
         <v>3641</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>0x0F72</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>0x1ABA</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -11159,8 +13938,10 @@
           <t>2024/04/27-14:21:10</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>89320420000001827177</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -11199,8 +13980,38 @@
       <c r="N82" t="b">
         <v>1</v>
       </c>
-      <c r="P82" t="n">
+      <c r="O82" t="n">
         <v>3694</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>0x0FB4</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>0x1ABB</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -11214,8 +14025,10 @@
           <t>2024/04/27-14:41:11</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>89320420000001827847</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -11254,8 +14067,38 @@
       <c r="N83" t="b">
         <v>1</v>
       </c>
-      <c r="P83" t="n">
+      <c r="O83" t="n">
         <v>3646</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>0x0FD8</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>0x15DF</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -11269,8 +14112,10 @@
           <t>2024/04/27-15:54:02</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>89320420000001827912</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -11309,8 +14154,38 @@
       <c r="N84" t="b">
         <v>1</v>
       </c>
-      <c r="P84" t="n">
+      <c r="O84" t="n">
         <v>3649</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>0x0F70</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>0x1839</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -11324,8 +14199,10 @@
           <t>2024/04/27-14:38:28</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>89320420000001827540</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -11364,8 +14241,38 @@
       <c r="N85" t="b">
         <v>1</v>
       </c>
-      <c r="P85" t="n">
+      <c r="O85" t="n">
         <v>3653</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>0x1FC9</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -11379,8 +14286,10 @@
           <t>2024/04/27-14:15:33</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>89320420000001827532</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11419,8 +14328,38 @@
       <c r="N86" t="b">
         <v>1</v>
       </c>
-      <c r="P86" t="n">
+      <c r="O86" t="n">
         <v>3653</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>0x0F71</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>0x1FCA</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -11434,8 +14373,10 @@
           <t>2024/04/27-14:05:37</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>89320420000001827649</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -11474,8 +14415,38 @@
       <c r="N87" t="b">
         <v>1</v>
       </c>
-      <c r="P87" t="n">
+      <c r="O87" t="n">
         <v>3651</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>0x0F76</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>0x2258</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -11489,8 +14460,10 @@
           <t>2024/04/27-14:11:23</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>89320420000001827482</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -11529,8 +14502,38 @@
       <c r="N88" t="b">
         <v>1</v>
       </c>
-      <c r="P88" t="n">
+      <c r="O88" t="n">
         <v>3680</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>0x0F68</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>0x1FCF</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -11544,8 +14547,10 @@
           <t>2024/04/27-14:00:00</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>89320420000001827474</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -11584,8 +14589,38 @@
       <c r="N89" t="b">
         <v>1</v>
       </c>
-      <c r="P89" t="n">
+      <c r="O89" t="n">
         <v>3666</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>0x0FA3</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>0x1FD0</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -11599,8 +14634,10 @@
           <t>2024/04/27-14:14:12</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>89320420000001827904</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11639,8 +14676,38 @@
       <c r="N90" t="b">
         <v>1</v>
       </c>
-      <c r="P90" t="n">
+      <c r="O90" t="n">
         <v>3608</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>0x0F78</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>0x1837</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -11654,8 +14721,10 @@
           <t>2024/04/27-14:34:12</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>89320420000001827946</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -11694,8 +14763,38 @@
       <c r="N91" t="b">
         <v>1</v>
       </c>
-      <c r="P91" t="n">
+      <c r="O91" t="n">
         <v>3674</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>0x0F6A</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>0x1836</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -11709,8 +14808,10 @@
           <t>2024/04/27-14:04:12</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>89320420000001827821</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -11749,8 +14850,38 @@
       <c r="N92" t="b">
         <v>1</v>
       </c>
-      <c r="P92" t="n">
+      <c r="O92" t="n">
         <v>3658</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>0x0F73</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>0x15A9</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -11764,8 +14895,10 @@
           <t>2024/04/27-14:32:38</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>89320420000001827839</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -11804,8 +14937,38 @@
       <c r="N93" t="b">
         <v>1</v>
       </c>
-      <c r="P93" t="n">
+      <c r="O93" t="n">
         <v>3654</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>0x0F76</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>0x15E7</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -11819,8 +14982,10 @@
           <t>2024/04/27-15:43:56</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>89320420000001827508</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -11859,8 +15024,38 @@
       <c r="N94" t="b">
         <v>1</v>
       </c>
-      <c r="P94" t="n">
+      <c r="O94" t="n">
         <v>3607</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>0x0F68</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>0x1FCD</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -11874,8 +15069,10 @@
           <t>2024/04/27-14:19:47</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>89320420000001827623</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -11914,8 +15111,38 @@
       <c r="N95" t="b">
         <v>1</v>
       </c>
-      <c r="P95" t="n">
+      <c r="O95" t="n">
         <v>3661</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>0x0FB2</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>0x2000</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -11929,8 +15156,10 @@
           <t>2024/04/27-15:38:19</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>89320420000001827615</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11969,8 +15198,38 @@
       <c r="N96" t="b">
         <v>1</v>
       </c>
-      <c r="P96" t="n">
+      <c r="O96" t="n">
         <v>3650</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>0x0F5E</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>0x2001</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -11984,8 +15243,10 @@
           <t>2024/04/27-15:41:09</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>89320420000001827607</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -12024,8 +15285,38 @@
       <c r="N97" t="b">
         <v>1</v>
       </c>
-      <c r="P97" t="n">
+      <c r="O97" t="n">
         <v>3667</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>0x0F83</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>0x2002</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -12039,8 +15330,10 @@
           <t>2024/04/27-14:09:55</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>89320420000001827599</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -12079,8 +15372,38 @@
       <c r="N98" t="b">
         <v>1</v>
       </c>
-      <c r="P98" t="n">
+      <c r="O98" t="n">
         <v>3638</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>0x0F7B</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>0x2003</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -12094,8 +15417,10 @@
           <t>2024/04/27-14:07:09</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>89320420000001827490</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -12134,8 +15459,38 @@
       <c r="N99" t="b">
         <v>1</v>
       </c>
-      <c r="P99" t="n">
+      <c r="O99" t="n">
         <v>3643</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>0x0F82</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>0x1FCE</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -12149,8 +15504,10 @@
           <t>2024/04/27-13:50:14</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>8.932042000000184e+19</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>89320420000001827250</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -12189,8 +15546,38 @@
       <c r="N100" t="b">
         <v>1</v>
       </c>
-      <c r="P100" t="n">
+      <c r="O100" t="n">
         <v>3654</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>2.4.2(ESP32C3-SPI)</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>BG772AGLAAR01A05_03.201.03.201</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>0x4190</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>0x0F64</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>0x0000</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>0x1AF1</t>
+        </is>
       </c>
     </row>
   </sheetData>
